--- a/biology/Botanique/Gagée/Gagée.xlsx
+++ b/biology/Botanique/Gagée/Gagée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gag%C3%A9e</t>
+          <t>Gagée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les gagées (genre Gagea) sont des petites plantes monocotylédones à bulbe appartenant à la famille des Liliacées. À l'exception d'une ou deux espèces à fleurs blanches, elles ont toutes des fleurs jaunes à six tépales libres, formant le plus souvent une étoile, parfois une cloche. Les diverses espèces sont très proches les unes des autres, se différenciant par l'absence ou la présence de poils, et surtout par le nombre et la forme des feuilles basales (très grandes) et caulinaires.
-Gagea a été dédiée par Richard Anthony Salisbury (1761-1829) en 1806 à Thomas Gage, botaniste anglais (1781–1820)[2].
+Gagea a été dédiée par Richard Anthony Salisbury (1761-1829) en 1806 à Thomas Gage, botaniste anglais (1781–1820).
 La plupart des espèces poussent sur le calcaire, souvent en région méditerranéenne, et font l'objet d'arrêtés de protection en France et dans les pays voisins (Espagne, Italie notamment).
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gag%C3%A9e</t>
+          <t>Gagée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Usages alimentaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'ethnobotaniste François Couplan (2009) les feuilles (uniquement jeunes) et le bulbe de G. lutea semblent avoir autrefois été consommés dans presque toute l'Europe et dans le nord-est de l'Asie[3]. 
-Le bulbe de G. fragifera (=  G. liotardi) l'était en Europe centrale ; et en France, en Savoie jusqu'au XIXe siècle, cuisiné avec des pommes de terre[3]. 
-Celui de G granatelli est encore consommé en Turquie[3]. Les gagées sont aujourd'hui souvent devenues rares et parfois protégées, ce qui interdit leur consommation.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'ethnobotaniste François Couplan (2009) les feuilles (uniquement jeunes) et le bulbe de G. lutea semblent avoir autrefois été consommés dans presque toute l'Europe et dans le nord-est de l'Asie. 
+Le bulbe de G. fragifera (=  G. liotardi) l'était en Europe centrale ; et en France, en Savoie jusqu'au XIXe siècle, cuisiné avec des pommes de terre. 
+Celui de G granatelli est encore consommé en Turquie. Les gagées sont aujourd'hui souvent devenues rares et parfois protégées, ce qui interdit leur consommation.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gag%C3%A9e</t>
+          <t>Gagée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Principales espèces (France)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gagea bohemica (Zauschn.) Schult. &amp; Schult.f.
 Gagea foliosa (C.Presl) Schult. &amp; Schult.f. - gagée feuillée
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gag%C3%A9e</t>
+          <t>Gagée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,9 +602,11 @@
           <t>Liste des sections et espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (27 mars 2016)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (27 mars 2016) :
 section Gagea sect. Anthericoides A. Terracc.
 Gagea graeca (L.) Irmsch.
 Gagea trinervia (Viv.) Greuter
